--- a/biology/Biochimie/Dihydrolipoyl_transacylase/Dihydrolipoyl_transacylase.xlsx
+++ b/biology/Biochimie/Dihydrolipoyl_transacylase/Dihydrolipoyl_transacylase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dihydrolipoyl transacylase est une acyltransférase qui fait partie du complexe 3-méthyl-2-oxobutanoate déshydrogénase, dont elle est l'enzyme E2, complexe qui réalise la conversion de l'α-cétovaline en Isobutyryl-CoA et CO2 :
 Plus précisément, l'enzyme E2 catalyse le transfert du groupe isobutyryle sur la coenzyme A depuis le lipoamide sur laquelle elle a été fixée à l'étape précédente, catalysée par la 3-méthyl-2-oxobutanoate déshydrogénase.
@@ -513,7 +525,9 @@
           <t>La dihydrolipoyl transacylase</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dihydrolipoyl transacylase est une acyltransférase faisant intervenir successivement trois cofacteurs : la thiamine pyrophosphate (TPP, liée à l'α-cétoglutarate déshydrogénase), le dihydrolipoamide et la coenzyme A (CoA-SH), cette dernière étant convertie en acétyl-coenzyme A (acétyl-CoA).
 Le véritable cofacteur est en fait l'acide lipoïque davantage que le (dihydro)lipoamide, mais cet acide carboxylique est lié par covalence à la protéine E2 au moyen d'une liaison amide sur un résidu lysine, ce qui donne l'équivalent d'un résidu lipoamide.
